--- a/NINZA_CRM/src/test/resources/NINJA_CRM_E32.xlsx
+++ b/NINZA_CRM/src/test/resources/NINJA_CRM_E32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankit\Downloads\Advance selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankit\git\NINJA_CRM\NINZA_CRM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0BF86-6D66-45FB-9C9D-78112CA31910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189B469-5E6C-4142-B972-558EAC2C13B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10332" yWindow="1524" windowWidth="10656" windowHeight="9420" firstSheet="3" activeTab="4" xr2:uid="{38A72BB2-3E12-478E-B6F9-816D132A7967}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{38A72BB2-3E12-478E-B6F9-816D132A7967}"/>
   </bookViews>
   <sheets>
     <sheet name="Campaign" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>CreateCampaginWithMandatoryFields</t>
   </si>
   <si>
-    <t>Campagintest</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>rmgy@10003</t>
+  </si>
+  <si>
+    <t>Campagintest1</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C84E545-D216-417D-A426-6DF48AF960CE}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,33 +740,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -777,30 +777,30 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -823,60 +823,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -913,66 +913,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1006,54 +1006,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1066,61 +1066,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C1D185-5DF9-4AA0-9ACA-4A993456DDC7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
